--- a/temp_doc/PESERTA UJIAN.xlsx
+++ b/temp_doc/PESERTA UJIAN.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0CCBF-7B29-1D4A-9393-FF7D23D398EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DA7D3-F1DA-DE48-9676-D54BBD018A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pesertaujian_moodle" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pesertaujian_moodle!$A$1:$F$650</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -6859,10 +6862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="D663" sqref="D663"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6895,7 +6899,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1338</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1340</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1341</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1342</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1343</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1344</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1345</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1346</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1347</v>
       </c>
@@ -7075,7 +7079,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1348</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1349</v>
       </c>
@@ -7115,7 +7119,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1350</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1351</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1352</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1353</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1354</v>
       </c>
@@ -7215,7 +7219,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1355</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1356</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1357</v>
       </c>
@@ -7275,7 +7279,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1358</v>
       </c>
@@ -7295,7 +7299,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1359</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1360</v>
       </c>
@@ -7335,7 +7339,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1361</v>
       </c>
@@ -7355,7 +7359,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1362</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1363</v>
       </c>
@@ -7395,7 +7399,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1364</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1365</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1366</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1367</v>
       </c>
@@ -7475,7 +7479,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1368</v>
       </c>
@@ -7495,7 +7499,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1369</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1370</v>
       </c>
@@ -7535,7 +7539,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1371</v>
       </c>
@@ -7555,7 +7559,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1372</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1373</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1374</v>
       </c>
@@ -7615,7 +7619,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1375</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1376</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1377</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>1378</v>
       </c>
@@ -7695,7 +7699,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1379</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1380</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1381</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1382</v>
       </c>
@@ -7775,7 +7779,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1383</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1384</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1385</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>1386</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1387</v>
       </c>
@@ -7875,7 +7879,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1388</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1389</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1390</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1391</v>
       </c>
@@ -7955,7 +7959,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1392</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1393</v>
       </c>
@@ -7995,7 +7999,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1394</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1395</v>
       </c>
@@ -8035,7 +8039,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1396</v>
       </c>
@@ -8055,7 +8059,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1397</v>
       </c>
@@ -8075,7 +8079,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1398</v>
       </c>
@@ -8095,7 +8099,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1399</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1400</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1401</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1402</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1403</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1404</v>
       </c>
@@ -8215,7 +8219,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1405</v>
       </c>
@@ -8235,7 +8239,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1406</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1407</v>
       </c>
@@ -8275,7 +8279,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1408</v>
       </c>
@@ -8295,7 +8299,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1409</v>
       </c>
@@ -8315,7 +8319,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1410</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1411</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1412</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1413</v>
       </c>
@@ -8395,7 +8399,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1414</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>1415</v>
       </c>
@@ -8435,7 +8439,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>1416</v>
       </c>
@@ -8455,7 +8459,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>1417</v>
       </c>
@@ -8475,7 +8479,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1418</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>1419</v>
       </c>
@@ -8515,7 +8519,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>1420</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1421</v>
       </c>
@@ -8555,7 +8559,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>1422</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>1423</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1424</v>
       </c>
@@ -12095,7 +12099,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1599</v>
       </c>
@@ -12115,7 +12119,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>1600</v>
       </c>
@@ -12135,7 +12139,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>1601</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>1602</v>
       </c>
@@ -12175,7 +12179,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>1603</v>
       </c>
@@ -12195,7 +12199,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>1604</v>
       </c>
@@ -12215,7 +12219,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>1605</v>
       </c>
@@ -12235,7 +12239,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>1606</v>
       </c>
@@ -12255,7 +12259,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>1607</v>
       </c>
@@ -12275,7 +12279,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1608</v>
       </c>
@@ -12295,7 +12299,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>1609</v>
       </c>
@@ -12315,7 +12319,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>1610</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1611</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>1612</v>
       </c>
@@ -12375,7 +12379,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1613</v>
       </c>
@@ -12395,7 +12399,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1614</v>
       </c>
@@ -12415,7 +12419,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1615</v>
       </c>
@@ -12435,7 +12439,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1616</v>
       </c>
@@ -12455,7 +12459,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>1617</v>
       </c>
@@ -12475,7 +12479,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>1618</v>
       </c>
@@ -12495,7 +12499,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>1619</v>
       </c>
@@ -12515,7 +12519,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1620</v>
       </c>
@@ -12535,7 +12539,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>1621</v>
       </c>
@@ -12555,7 +12559,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1622</v>
       </c>
@@ -12575,7 +12579,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>1623</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>1624</v>
       </c>
@@ -12615,7 +12619,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>1625</v>
       </c>
@@ -12635,7 +12639,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>1626</v>
       </c>
@@ -12655,7 +12659,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>1627</v>
       </c>
@@ -12675,7 +12679,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>1628</v>
       </c>
@@ -12695,7 +12699,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>1629</v>
       </c>
@@ -12715,7 +12719,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>1630</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1631</v>
       </c>
@@ -12755,7 +12759,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>1632</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>1633</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>1634</v>
       </c>
@@ -12815,7 +12819,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>1635</v>
       </c>
@@ -12835,7 +12839,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>1636</v>
       </c>
@@ -12855,7 +12859,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>1637</v>
       </c>
@@ -12875,7 +12879,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>1638</v>
       </c>
@@ -12895,7 +12899,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>1639</v>
       </c>
@@ -12915,7 +12919,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>1640</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>1641</v>
       </c>
@@ -12955,7 +12959,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>1642</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>1643</v>
       </c>
@@ -12995,7 +12999,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>1644</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>1645</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>1646</v>
       </c>
@@ -13055,7 +13059,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>1647</v>
       </c>
@@ -13075,7 +13079,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>1648</v>
       </c>
@@ -13095,7 +13099,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>1649</v>
       </c>
@@ -13115,7 +13119,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>1650</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>1651</v>
       </c>
@@ -13155,7 +13159,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>1652</v>
       </c>
@@ -13175,7 +13179,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>1653</v>
       </c>
@@ -13195,7 +13199,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>1654</v>
       </c>
@@ -13215,7 +13219,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>1655</v>
       </c>
@@ -13235,7 +13239,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>1656</v>
       </c>
@@ -13255,7 +13259,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>1657</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>1658</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>1659</v>
       </c>
@@ -13315,7 +13319,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>1660</v>
       </c>
@@ -13335,7 +13339,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>1661</v>
       </c>
@@ -13355,7 +13359,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>1662</v>
       </c>
@@ -13375,7 +13379,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>1663</v>
       </c>
@@ -13395,7 +13399,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>1664</v>
       </c>
@@ -13415,7 +13419,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>1665</v>
       </c>
@@ -13435,7 +13439,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>1666</v>
       </c>
@@ -13455,7 +13459,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>1667</v>
       </c>
@@ -13475,7 +13479,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>1668</v>
       </c>
@@ -13495,7 +13499,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>1669</v>
       </c>
@@ -13515,7 +13519,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>1670</v>
       </c>
@@ -13535,7 +13539,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>1671</v>
       </c>
@@ -13555,7 +13559,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>1672</v>
       </c>
@@ -13575,7 +13579,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>1673</v>
       </c>
@@ -13595,7 +13599,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>1674</v>
       </c>
@@ -13615,7 +13619,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>1675</v>
       </c>
@@ -13635,7 +13639,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>1676</v>
       </c>
@@ -13655,7 +13659,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>1677</v>
       </c>
@@ -13675,7 +13679,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>1678</v>
       </c>
@@ -13695,7 +13699,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>1679</v>
       </c>
@@ -13715,7 +13719,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>1680</v>
       </c>
@@ -13735,7 +13739,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>1681</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>1682</v>
       </c>
@@ -13775,7 +13779,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1683</v>
       </c>
@@ -13795,7 +13799,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>1684</v>
       </c>
@@ -13815,7 +13819,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>1685</v>
       </c>
@@ -13835,7 +13839,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>1686</v>
       </c>
@@ -13855,7 +13859,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>1687</v>
       </c>
@@ -13875,7 +13879,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>1688</v>
       </c>
@@ -13895,7 +13899,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>1689</v>
       </c>
@@ -13915,7 +13919,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>1690</v>
       </c>
@@ -13935,7 +13939,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>1691</v>
       </c>
@@ -13955,7 +13959,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>1692</v>
       </c>
@@ -13975,7 +13979,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>1693</v>
       </c>
@@ -13995,7 +13999,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>1694</v>
       </c>
@@ -14015,7 +14019,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>1695</v>
       </c>
@@ -14035,7 +14039,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>1696</v>
       </c>
@@ -14055,7 +14059,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>1697</v>
       </c>
@@ -14075,7 +14079,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>1698</v>
       </c>
@@ -14095,7 +14099,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>1699</v>
       </c>
@@ -14115,7 +14119,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>1700</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>1701</v>
       </c>
@@ -14155,7 +14159,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>1702</v>
       </c>
@@ -14175,7 +14179,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>1703</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>1704</v>
       </c>
@@ -14215,7 +14219,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>1705</v>
       </c>
@@ -14235,7 +14239,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>1706</v>
       </c>
@@ -14255,7 +14259,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>1707</v>
       </c>
@@ -14275,7 +14279,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>1708</v>
       </c>
@@ -14295,7 +14299,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>1709</v>
       </c>
@@ -14315,7 +14319,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>1710</v>
       </c>
@@ -14335,7 +14339,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1711</v>
       </c>
@@ -14355,7 +14359,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>1712</v>
       </c>
@@ -14375,7 +14379,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1713</v>
       </c>
@@ -14395,7 +14399,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>1714</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1715</v>
       </c>
@@ -14435,7 +14439,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>1716</v>
       </c>
@@ -14455,7 +14459,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1717</v>
       </c>
@@ -14475,7 +14479,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>1718</v>
       </c>
@@ -14495,7 +14499,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1719</v>
       </c>
@@ -14515,7 +14519,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>1720</v>
       </c>
@@ -14535,7 +14539,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1721</v>
       </c>
@@ -14555,7 +14559,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>1722</v>
       </c>
@@ -14575,7 +14579,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1723</v>
       </c>
@@ -14595,7 +14599,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>1724</v>
       </c>
@@ -14615,7 +14619,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1725</v>
       </c>
@@ -14635,7 +14639,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>1726</v>
       </c>
@@ -14655,7 +14659,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1727</v>
       </c>
@@ -14675,7 +14679,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>1728</v>
       </c>
@@ -14695,7 +14699,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1729</v>
       </c>
@@ -14715,7 +14719,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>1730</v>
       </c>
@@ -14735,7 +14739,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1731</v>
       </c>
@@ -14755,7 +14759,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>1732</v>
       </c>
@@ -14775,7 +14779,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>1733</v>
       </c>
@@ -14795,7 +14799,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>1734</v>
       </c>
@@ -14815,7 +14819,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>1735</v>
       </c>
@@ -14835,7 +14839,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>1736</v>
       </c>
@@ -14855,7 +14859,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>1737</v>
       </c>
@@ -14875,7 +14879,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>1738</v>
       </c>
@@ -14895,7 +14899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>1739</v>
       </c>
@@ -14915,7 +14919,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>1740</v>
       </c>
@@ -14935,7 +14939,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>1741</v>
       </c>
@@ -14955,7 +14959,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>1742</v>
       </c>
@@ -14975,7 +14979,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>1743</v>
       </c>
@@ -14995,7 +14999,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>1744</v>
       </c>
@@ -15015,7 +15019,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>1745</v>
       </c>
@@ -15035,7 +15039,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>1746</v>
       </c>
@@ -15055,7 +15059,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>1747</v>
       </c>
@@ -15075,7 +15079,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>1748</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>1749</v>
       </c>
@@ -15115,7 +15119,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>1750</v>
       </c>
@@ -15135,7 +15139,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1751</v>
       </c>
@@ -15155,7 +15159,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>1752</v>
       </c>
@@ -15175,7 +15179,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>1753</v>
       </c>
@@ -15195,7 +15199,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>1754</v>
       </c>
@@ -15215,7 +15219,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>1755</v>
       </c>
@@ -15235,7 +15239,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>1756</v>
       </c>
@@ -15255,7 +15259,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1757</v>
       </c>
@@ -15275,7 +15279,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>1758</v>
       </c>
@@ -15295,7 +15299,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1759</v>
       </c>
@@ -15315,7 +15319,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>1760</v>
       </c>
@@ -15335,7 +15339,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>1761</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>1762</v>
       </c>
@@ -15375,7 +15379,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>1763</v>
       </c>
@@ -15395,7 +15399,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>1764</v>
       </c>
@@ -15415,7 +15419,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>1765</v>
       </c>
@@ -15435,7 +15439,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>1766</v>
       </c>
@@ -15455,7 +15459,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>1767</v>
       </c>
@@ -15475,7 +15479,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>1768</v>
       </c>
@@ -15495,7 +15499,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>1769</v>
       </c>
@@ -15515,7 +15519,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>1770</v>
       </c>
@@ -15535,7 +15539,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>1771</v>
       </c>
@@ -15555,7 +15559,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>1772</v>
       </c>
@@ -15575,7 +15579,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1773</v>
       </c>
@@ -15595,7 +15599,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>1774</v>
       </c>
@@ -15615,7 +15619,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>1775</v>
       </c>
@@ -15635,7 +15639,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>1776</v>
       </c>
@@ -15655,7 +15659,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>1777</v>
       </c>
@@ -15675,7 +15679,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>1778</v>
       </c>
@@ -15695,7 +15699,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>1779</v>
       </c>
@@ -15715,7 +15719,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>1780</v>
       </c>
@@ -15735,7 +15739,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1781</v>
       </c>
@@ -15755,7 +15759,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>1782</v>
       </c>
@@ -17875,7 +17879,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>1888</v>
       </c>
@@ -17895,7 +17899,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>1889</v>
       </c>
@@ -17915,7 +17919,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>1890</v>
       </c>
@@ -17935,7 +17939,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>1891</v>
       </c>
@@ -17955,7 +17959,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>1892</v>
       </c>
@@ -17975,7 +17979,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>1893</v>
       </c>
@@ -17995,7 +17999,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>1894</v>
       </c>
@@ -18015,7 +18019,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1895</v>
       </c>
@@ -18035,7 +18039,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>1896</v>
       </c>
@@ -18055,7 +18059,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1897</v>
       </c>
@@ -18075,7 +18079,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>1898</v>
       </c>
@@ -18095,7 +18099,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1899</v>
       </c>
@@ -18115,7 +18119,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>1900</v>
       </c>
@@ -18135,7 +18139,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1901</v>
       </c>
@@ -18155,7 +18159,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>1902</v>
       </c>
@@ -18175,7 +18179,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1903</v>
       </c>
@@ -18195,7 +18199,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>1904</v>
       </c>
@@ -18215,7 +18219,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>1905</v>
       </c>
@@ -18235,7 +18239,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>1906</v>
       </c>
@@ -18255,7 +18259,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>1907</v>
       </c>
@@ -18275,7 +18279,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>1908</v>
       </c>
@@ -18295,7 +18299,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1909</v>
       </c>
@@ -18315,7 +18319,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>1910</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1911</v>
       </c>
@@ -18355,7 +18359,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>1912</v>
       </c>
@@ -18375,7 +18379,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1913</v>
       </c>
@@ -18395,7 +18399,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>1914</v>
       </c>
@@ -18415,7 +18419,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1915</v>
       </c>
@@ -18435,7 +18439,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>1916</v>
       </c>
@@ -18455,7 +18459,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1917</v>
       </c>
@@ -18475,7 +18479,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>1918</v>
       </c>
@@ -18495,7 +18499,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>1919</v>
       </c>
@@ -18515,7 +18519,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>1920</v>
       </c>
@@ -18535,7 +18539,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1921</v>
       </c>
@@ -18555,7 +18559,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>1922</v>
       </c>
@@ -18575,7 +18579,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1923</v>
       </c>
@@ -18595,7 +18599,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>1924</v>
       </c>
@@ -18615,7 +18619,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1925</v>
       </c>
@@ -18635,7 +18639,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>1926</v>
       </c>
@@ -18655,7 +18659,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1927</v>
       </c>
@@ -18675,7 +18679,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>1928</v>
       </c>
@@ -18695,7 +18699,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1929</v>
       </c>
@@ -18715,7 +18719,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>1930</v>
       </c>
@@ -18735,7 +18739,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1931</v>
       </c>
@@ -18755,7 +18759,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>1932</v>
       </c>
@@ -18775,7 +18779,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1933</v>
       </c>
@@ -18795,7 +18799,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>1934</v>
       </c>
@@ -18815,7 +18819,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1935</v>
       </c>
@@ -18835,7 +18839,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>1936</v>
       </c>
@@ -18855,7 +18859,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1937</v>
       </c>
@@ -18875,7 +18879,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>1938</v>
       </c>
@@ -18895,7 +18899,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1939</v>
       </c>
@@ -18915,7 +18919,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>1940</v>
       </c>
@@ -18935,7 +18939,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1941</v>
       </c>
@@ -18955,7 +18959,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>1942</v>
       </c>
@@ -18975,7 +18979,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1943</v>
       </c>
@@ -18995,7 +18999,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>1944</v>
       </c>
@@ -19015,7 +19019,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1945</v>
       </c>
@@ -19035,7 +19039,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>1946</v>
       </c>
@@ -19055,7 +19059,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1947</v>
       </c>
@@ -19075,7 +19079,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>1948</v>
       </c>
@@ -19095,7 +19099,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>1949</v>
       </c>
@@ -19115,7 +19119,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>1950</v>
       </c>
@@ -19135,7 +19139,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>1951</v>
       </c>
@@ -19155,7 +19159,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>1952</v>
       </c>
@@ -19175,7 +19179,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>1953</v>
       </c>
@@ -19195,7 +19199,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>1954</v>
       </c>
@@ -19215,7 +19219,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1955</v>
       </c>
@@ -19235,7 +19239,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>1956</v>
       </c>
@@ -19255,7 +19259,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1957</v>
       </c>
@@ -19275,7 +19279,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>1958</v>
       </c>
@@ -19295,7 +19299,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1959</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>1960</v>
       </c>
@@ -19335,7 +19339,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1961</v>
       </c>
@@ -19355,7 +19359,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>1962</v>
       </c>
@@ -19375,7 +19379,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1963</v>
       </c>
@@ -19395,7 +19399,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>1964</v>
       </c>
@@ -19415,7 +19419,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>1965</v>
       </c>
@@ -19435,7 +19439,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>1966</v>
       </c>
@@ -19455,7 +19459,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>1967</v>
       </c>
@@ -19475,7 +19479,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>1968</v>
       </c>
@@ -19495,7 +19499,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>1969</v>
       </c>
@@ -19515,7 +19519,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>1970</v>
       </c>
@@ -19535,7 +19539,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>1971</v>
       </c>
@@ -19555,7 +19559,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>1972</v>
       </c>
@@ -19575,7 +19579,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>1973</v>
       </c>
@@ -19595,7 +19599,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>1974</v>
       </c>
@@ -19615,7 +19619,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>1975</v>
       </c>
@@ -19635,7 +19639,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>1976</v>
       </c>
@@ -19655,7 +19659,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>1977</v>
       </c>
@@ -19675,7 +19679,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>1978</v>
       </c>
@@ -19695,7 +19699,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>1979</v>
       </c>
@@ -19715,7 +19719,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>1980</v>
       </c>
@@ -19735,7 +19739,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>1981</v>
       </c>
@@ -19755,7 +19759,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>1982</v>
       </c>
@@ -19775,7 +19779,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>1983</v>
       </c>
@@ -19795,7 +19799,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>1984</v>
       </c>
@@ -19815,7 +19819,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>1985</v>
       </c>
@@ -19835,7 +19839,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>1986</v>
       </c>
@@ -19855,7 +19859,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>1987</v>
       </c>
@@ -19876,6 +19880,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F650" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="(X DKV 1)"/>
+        <filter val="(X MPLB 1)"/>
+        <filter val="(X MPLB 2)"/>
+        <filter val="(X PM)"/>
+        <filter val="(XI MPLB 1)"/>
+        <filter val="(XI MPLB 2)"/>
+        <filter val="(XI PM)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
